--- a/Generator/input/tablemodel2datamodel/LRMS_セカンドライフ_データモデル←テーブルマッピング.xlsx
+++ b/Generator/input/tablemodel2datamodel/LRMS_セカンドライフ_データモデル←テーブルマッピング.xlsx
@@ -4819,9 +4819,9 @@
   <dimension ref="A1:M131"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="3" topLeftCell="A88" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="A2" sqref="A2:IV3"/>
-      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
+      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
